--- a/addition_result.xlsx
+++ b/addition_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,64 +443,27 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
